--- a/LOGS/647518ef-7506-40c4-894d-bba9dbd2b223/main_page_service_output/main_pages.xlsx
+++ b/LOGS/647518ef-7506-40c4-894d-bba9dbd2b223/main_page_service_output/main_pages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="113">
   <si>
     <t>Particulars</t>
   </si>
@@ -180,6 +180,9 @@
     <t>noncurrent</t>
   </si>
   <si>
+    <t>equity</t>
+  </si>
+  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -346,6 +349,9 @@
   </si>
   <si>
     <t>investing_activities</t>
+  </si>
+  <si>
+    <t>financing_activities</t>
   </si>
   <si>
     <t>net_working_capital</t>
@@ -903,7 +909,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -923,7 +929,7 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -943,7 +949,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -963,7 +969,7 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -983,7 +989,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1003,7 +1009,7 @@
         <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1034,10 +1040,10 @@
         <v>865858</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1054,10 +1060,10 @@
         <v>152339</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1214,7 +1220,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1234,7 +1240,7 @@
         <v>51</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1254,7 +1260,7 @@
         <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1274,7 +1280,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1308,7 +1314,7 @@
         <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1325,7 +1331,7 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1345,7 +1351,7 @@
         <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1362,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1379,7 +1385,7 @@
         <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1396,7 +1402,7 @@
         <v>51</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1428,7 +1434,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -1442,10 +1448,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>1967</v>
@@ -1456,10 +1462,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>-1.168031</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>-62334</v>
@@ -1481,10 +1487,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6">
         <v>5934</v>
@@ -1495,10 +1501,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7">
         <v>-7202</v>
@@ -1509,7 +1515,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>-1268</v>
@@ -1520,7 +1526,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>-63602</v>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>
@@ -1545,7 +1551,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>-67.179</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1578,7 +1584,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1589,7 +1595,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15">
         <v>-285</v>
@@ -1600,7 +1606,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>-285</v>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <v>-67464</v>
@@ -1655,7 +1661,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1664,12 +1670,12 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>-67179</v>
@@ -1678,15 +1684,15 @@
         <v>4264</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4">
         <v>23507</v>
@@ -1695,15 +1701,15 @@
         <v>24005</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5">
         <v>22591</v>
@@ -1712,15 +1718,15 @@
         <v>23221</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6">
         <v>13407</v>
@@ -1729,12 +1735,12 @@
         <v>7654</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1743,12 +1749,12 @@
         <v>666</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8">
         <v>3577</v>
@@ -1757,12 +1763,12 @@
         <v>15940</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9">
         <v>1268</v>
@@ -1771,12 +1777,12 @@
         <v>5217</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10">
         <v>1369</v>
@@ -1785,12 +1791,12 @@
         <v>-24188</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1799,15 +1805,15 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>-1460</v>
@@ -1816,15 +1822,15 @@
         <v>56779</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>-5303</v>
@@ -1833,15 +1839,15 @@
         <v>-2703</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>-55646</v>
@@ -1850,15 +1856,15 @@
         <v>-13856</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15">
         <v>-2119</v>
@@ -1867,15 +1873,15 @@
         <v>-3011</v>
       </c>
       <c r="E15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16">
         <v>86591</v>
@@ -1884,15 +1890,15 @@
         <v>6365</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17">
         <v>629</v>
@@ -1901,15 +1907,15 @@
         <v>3542</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18">
         <v>-3379</v>
@@ -1918,15 +1924,15 @@
         <v>-1765</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19">
         <v>2909</v>
@@ -1935,15 +1941,15 @@
         <v>713</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20">
         <v>3025</v>
@@ -1952,15 +1958,15 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>-28936</v>
@@ -1969,12 +1975,12 @@
         <v>-9732</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22">
         <v>-3689</v>
@@ -1983,12 +1989,12 @@
         <v>36.332</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1997,12 +2003,12 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24">
         <v>-14.279</v>
@@ -2011,12 +2017,12 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2025,12 +2031,12 @@
         <v>54496</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>-8577</v>
@@ -2039,12 +2045,12 @@
         <v>-9343</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>-105381</v>
@@ -2053,12 +2059,12 @@
         <v>-61473</v>
       </c>
       <c r="E27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28">
         <v>-128237</v>
@@ -2067,12 +2073,12 @@
         <v>-16320</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2081,12 +2087,12 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30">
         <v>44984</v>
@@ -2095,12 +2101,12 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31">
         <v>-29.848</v>
@@ -2109,12 +2115,12 @@
         <v>-28380</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32">
         <v>-3838</v>
@@ -2123,12 +2129,12 @@
         <v>-12186</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33">
         <v>11298</v>
@@ -2137,12 +2143,12 @@
         <v>-40566</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34">
         <v>-120628</v>
@@ -2151,12 +2157,12 @@
         <v>-20554</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35">
         <v>164760</v>
@@ -2165,12 +2171,12 @@
         <v>185314</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>35</v>
@@ -2182,7 +2188,7 @@
         <v>164760</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
